--- a/docs/동국대TD교육_20일과정_김한웅.xlsx
+++ b/docs/동국대TD교육_20일과정_김한웅.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>VFX TD(Visual Effect Technical Director) 전문가 양성 프로그램 모팩아카데미 TD기초 교육편성</t>
   </si>
@@ -76,19 +76,7 @@
     <t>28일</t>
   </si>
   <si>
-    <t>1일</t>
-  </si>
-  <si>
-    <t>2일</t>
-  </si>
-  <si>
-    <t>3일</t>
-  </si>
-  <si>
-    <t>4일</t>
-  </si>
-  <si>
-    <t>5일</t>
+    <t>31일</t>
   </si>
   <si>
     <t>7일</t>
@@ -205,10 +193,10 @@
     <t>소개,OS설치</t>
   </si>
   <si>
+    <t>리눅스</t>
+  </si>
+  <si>
     <t>신정</t>
-  </si>
-  <si>
-    <t>리눅스</t>
   </si>
   <si>
     <t>협업셋팅</t>
@@ -301,7 +289,13 @@
     <t>30일</t>
   </si>
   <si>
-    <t>31일</t>
+    <t>1일</t>
+  </si>
+  <si>
+    <t>4일</t>
+  </si>
+  <si>
+    <t>5일</t>
   </si>
   <si>
     <t>6일</t>
@@ -987,7 +981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,10 +1051,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2238,7 +2235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2465,2185 +2462,2212 @@
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" t="s" s="23">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s" s="23">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s" s="23">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s" s="23">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s" s="23">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="M8" t="s" s="23">
-        <v>13</v>
-      </c>
-      <c r="N8" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="O8" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="P8" t="s" s="23">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="R8" t="s" s="23">
-        <v>13</v>
-      </c>
-      <c r="S8" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="T8" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="U8" t="s" s="23">
-        <v>3</v>
-      </c>
-      <c r="V8" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="W8" t="s" s="23">
-        <v>13</v>
-      </c>
-      <c r="X8" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="Y8" t="s" s="23">
-        <v>15</v>
-      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" t="s" s="23">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s" s="23">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s" s="23">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s" s="23">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s" s="23">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s" s="23">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s" s="23">
-        <v>23</v>
-      </c>
-      <c r="I9" t="s" s="23">
-        <v>24</v>
-      </c>
-      <c r="J9" t="s" s="23">
-        <v>25</v>
-      </c>
-      <c r="K9" t="s" s="23">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s" s="23">
-        <v>27</v>
-      </c>
-      <c r="M9" t="s" s="23">
-        <v>28</v>
-      </c>
-      <c r="N9" t="s" s="23">
-        <v>29</v>
-      </c>
-      <c r="O9" t="s" s="23">
-        <v>30</v>
-      </c>
-      <c r="P9" t="s" s="23">
-        <v>31</v>
-      </c>
-      <c r="Q9" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="R9" t="s" s="23">
-        <v>33</v>
-      </c>
-      <c r="S9" t="s" s="23">
-        <v>34</v>
-      </c>
-      <c r="T9" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="U9" t="s" s="23">
-        <v>36</v>
-      </c>
-      <c r="V9" t="s" s="23">
-        <v>37</v>
-      </c>
-      <c r="W9" t="s" s="23">
-        <v>38</v>
-      </c>
-      <c r="X9" t="s" s="23">
-        <v>39</v>
-      </c>
-      <c r="Y9" t="s" s="23">
-        <v>40</v>
+      <c r="B9" t="s" s="24">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s" s="24">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s" s="24">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="N9" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="O9" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="P9" t="s" s="24">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="R9" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="S9" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="T9" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="U9" t="s" s="24">
+        <v>3</v>
+      </c>
+      <c r="V9" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="W9" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="X9" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="Y9" t="s" s="24">
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" t="s" s="23">
+      <c r="B10" t="s" s="24">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s" s="24">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s" s="24">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s" s="24">
+        <v>21</v>
+      </c>
+      <c r="G10" s="23">
+        <v>1</v>
+      </c>
+      <c r="H10" s="25">
+        <v>2</v>
+      </c>
+      <c r="I10" s="25">
+        <v>3</v>
+      </c>
+      <c r="J10" s="25">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s" s="24">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="P10" t="s" s="24">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s" s="24">
+        <v>28</v>
+      </c>
+      <c r="R10" t="s" s="24">
+        <v>29</v>
+      </c>
+      <c r="S10" t="s" s="24">
+        <v>30</v>
+      </c>
+      <c r="T10" t="s" s="24">
+        <v>31</v>
+      </c>
+      <c r="U10" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="V10" t="s" s="24">
+        <v>33</v>
+      </c>
+      <c r="W10" t="s" s="24">
+        <v>34</v>
+      </c>
+      <c r="X10" t="s" s="24">
+        <v>35</v>
+      </c>
+      <c r="Y10" t="s" s="24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" t="s" s="24">
+        <v>37</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" t="s" s="24">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s" s="24">
+        <v>39</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" t="s" s="24">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s" s="24">
         <v>41</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" t="s" s="23">
+      <c r="J11" t="s" s="24">
         <v>42</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" t="s" s="23">
+      <c r="K11" t="s" s="24">
         <v>43</v>
       </c>
-      <c r="H10" t="s" s="23">
+      <c r="L11" t="s" s="24">
         <v>44</v>
       </c>
-      <c r="I10" t="s" s="23">
+      <c r="M11" t="s" s="24">
         <v>45</v>
       </c>
-      <c r="J10" t="s" s="23">
+      <c r="N11" t="s" s="24">
         <v>46</v>
       </c>
-      <c r="K10" t="s" s="23">
+      <c r="O11" t="s" s="24">
         <v>47</v>
       </c>
-      <c r="L10" t="s" s="23">
+      <c r="P11" t="s" s="24">
         <v>48</v>
       </c>
-      <c r="M10" t="s" s="23">
+      <c r="Q11" t="s" s="24">
         <v>49</v>
       </c>
-      <c r="N10" t="s" s="23">
+      <c r="R11" t="s" s="24">
         <v>50</v>
       </c>
-      <c r="O10" t="s" s="23">
+      <c r="S11" t="s" s="24">
         <v>51</v>
       </c>
-      <c r="P10" t="s" s="23">
+      <c r="T11" t="s" s="24">
         <v>52</v>
       </c>
-      <c r="Q10" t="s" s="23">
+      <c r="U11" t="s" s="24">
         <v>53</v>
       </c>
-      <c r="R10" t="s" s="23">
+      <c r="V11" t="s" s="24">
         <v>54</v>
       </c>
-      <c r="S10" t="s" s="23">
+      <c r="W11" t="s" s="24">
         <v>55</v>
       </c>
-      <c r="T10" t="s" s="23">
+      <c r="X11" t="s" s="24">
         <v>56</v>
       </c>
-      <c r="U10" t="s" s="23">
+      <c r="Y11" t="s" s="24">
         <v>57</v>
       </c>
-      <c r="V10" t="s" s="23">
+    </row>
+    <row r="12" ht="29.25" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" t="s" s="26">
         <v>58</v>
       </c>
-      <c r="W10" t="s" s="23">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" t="s" s="28">
         <v>59</v>
       </c>
-      <c r="X10" t="s" s="23">
+      <c r="F12" t="s" s="26">
         <v>60</v>
       </c>
-      <c r="Y10" t="s" s="23">
+      <c r="G12" t="s" s="29">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" ht="29.25" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" t="s" s="25">
+      <c r="H12" t="s" s="30">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s" s="30">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s" s="30">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="L12" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="M12" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="N12" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="Q12" t="s" s="26">
         <v>62</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" t="s" s="27">
+      <c r="R12" t="s" s="26">
+        <v>62</v>
+      </c>
+      <c r="S12" t="s" s="26">
+        <v>62</v>
+      </c>
+      <c r="T12" t="s" s="26">
         <v>63</v>
       </c>
-      <c r="F11" t="s" s="28">
+      <c r="U12" t="s" s="26">
+        <v>63</v>
+      </c>
+      <c r="V12" t="s" s="26">
         <v>64</v>
       </c>
-      <c r="G11" t="s" s="29">
+      <c r="W12" t="s" s="26">
         <v>65</v>
       </c>
-      <c r="H11" t="s" s="29">
-        <v>65</v>
-      </c>
-      <c r="I11" t="s" s="29">
-        <v>65</v>
-      </c>
-      <c r="J11" t="s" s="29">
-        <v>65</v>
-      </c>
-      <c r="K11" t="s" s="25">
-        <v>65</v>
-      </c>
-      <c r="L11" t="s" s="25">
-        <v>65</v>
-      </c>
-      <c r="M11" t="s" s="25">
-        <v>65</v>
-      </c>
-      <c r="N11" t="s" s="25">
-        <v>65</v>
-      </c>
-      <c r="O11" t="s" s="25">
-        <v>65</v>
-      </c>
-      <c r="P11" t="s" s="25">
-        <v>65</v>
-      </c>
-      <c r="Q11" t="s" s="25">
+      <c r="X12" t="s" s="26">
         <v>66</v>
       </c>
-      <c r="R11" t="s" s="25">
-        <v>66</v>
-      </c>
-      <c r="S11" t="s" s="25">
-        <v>66</v>
-      </c>
-      <c r="T11" t="s" s="25">
+      <c r="Y12" t="s" s="26">
         <v>67</v>
       </c>
-      <c r="U11" t="s" s="25">
-        <v>67</v>
-      </c>
-      <c r="V11" t="s" s="25">
-        <v>68</v>
-      </c>
-      <c r="W11" t="s" s="25">
-        <v>69</v>
-      </c>
-      <c r="X11" t="s" s="25">
-        <v>70</v>
-      </c>
-      <c r="Y11" t="s" s="25">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-    </row>
-    <row r="13" ht="15.7" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" t="s" s="14">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s" s="15">
-        <v>72</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" t="s" s="15">
-        <v>73</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
       <c r="V13" s="33"/>
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
-      <c r="Y13" s="34"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
+      <c r="Y13" s="33"/>
+    </row>
+    <row r="14" ht="15.7" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" t="s" s="18">
+      <c r="B14" t="s" s="14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s" s="15">
+        <v>68</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" t="s" s="15">
+        <v>69</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="35"/>
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" t="s" s="18">
         <v>6</v>
       </c>
-      <c r="C14" t="s" s="18">
+      <c r="C15" t="s" s="18">
+        <v>70</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" t="s" s="18">
+        <v>71</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" t="s" s="18">
+        <v>72</v>
+      </c>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" t="s" s="18">
+        <v>73</v>
+      </c>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="35"/>
+      <c r="W15" t="s" s="20">
         <v>74</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" t="s" s="18">
-        <v>75</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" t="s" s="18">
-        <v>76</v>
-      </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" t="s" s="18">
-        <v>77</v>
-      </c>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="34"/>
-      <c r="W14" t="s" s="20">
-        <v>78</v>
-      </c>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="34"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" t="s" s="23">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s" s="23">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s" s="23">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s" s="23">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s" s="23">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="L15" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="M15" t="s" s="23">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="O15" t="s" s="23">
-        <v>13</v>
-      </c>
-      <c r="P15" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="Q15" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="R15" t="s" s="23">
-        <v>3</v>
-      </c>
-      <c r="S15" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="T15" t="s" s="23">
-        <v>13</v>
-      </c>
-      <c r="U15" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="V15" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="W15" t="s" s="23">
-        <v>3</v>
-      </c>
-      <c r="X15" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="Y15" t="s" s="23">
-        <v>13</v>
-      </c>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="35"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" t="s" s="23">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s" s="23">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s" s="23">
-        <v>79</v>
-      </c>
-      <c r="E16" t="s" s="23">
-        <v>80</v>
-      </c>
-      <c r="F16" t="s" s="23">
-        <v>81</v>
-      </c>
-      <c r="G16" t="s" s="23">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s" s="23">
-        <v>24</v>
-      </c>
-      <c r="I16" t="s" s="23">
-        <v>25</v>
-      </c>
-      <c r="J16" t="s" s="23">
-        <v>82</v>
-      </c>
-      <c r="K16" t="s" s="23">
-        <v>26</v>
-      </c>
-      <c r="L16" t="s" s="23">
-        <v>27</v>
-      </c>
-      <c r="M16" t="s" s="23">
-        <v>30</v>
-      </c>
-      <c r="N16" t="s" s="23">
-        <v>30</v>
-      </c>
-      <c r="O16" t="s" s="23">
-        <v>83</v>
-      </c>
-      <c r="P16" t="s" s="23">
-        <v>84</v>
-      </c>
-      <c r="Q16" t="s" s="23">
-        <v>31</v>
-      </c>
-      <c r="R16" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="S16" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="T16" t="s" s="23">
-        <v>85</v>
-      </c>
-      <c r="U16" t="s" s="23">
-        <v>86</v>
-      </c>
-      <c r="V16" t="s" s="23">
-        <v>36</v>
-      </c>
-      <c r="W16" t="s" s="23">
-        <v>40</v>
-      </c>
-      <c r="X16" t="s" s="23">
-        <v>18</v>
-      </c>
-      <c r="Y16" t="s" s="23">
-        <v>19</v>
+      <c r="B16" t="s" s="24">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s" s="24">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s" s="24">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s" s="24">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="O16" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="P16" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="R16" t="s" s="24">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="T16" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="U16" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="V16" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="W16" t="s" s="24">
+        <v>3</v>
+      </c>
+      <c r="X16" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="Y16" t="s" s="24">
+        <v>13</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" t="s" s="23">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s" s="23">
+      <c r="B17" t="s" s="24">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s" s="24">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s" s="24">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s" s="24">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s" s="24">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s" s="24">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s" s="24">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="24">
+        <v>79</v>
+      </c>
+      <c r="J17" t="s" s="24">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="O17" t="s" s="24">
+        <v>81</v>
+      </c>
+      <c r="P17" t="s" s="24">
+        <v>82</v>
+      </c>
+      <c r="Q17" t="s" s="24">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s" s="24">
+        <v>28</v>
+      </c>
+      <c r="S17" t="s" s="24">
+        <v>31</v>
+      </c>
+      <c r="T17" t="s" s="24">
+        <v>83</v>
+      </c>
+      <c r="U17" t="s" s="24">
+        <v>84</v>
+      </c>
+      <c r="V17" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="W17" t="s" s="24">
+        <v>36</v>
+      </c>
+      <c r="X17" t="s" s="24">
+        <v>18</v>
+      </c>
+      <c r="Y17" t="s" s="24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" t="s" s="24">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s" s="24">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s" s="24">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s" s="24">
         <v>87</v>
       </c>
-      <c r="D17" t="s" s="23">
+      <c r="F18" t="s" s="24">
         <v>88</v>
       </c>
-      <c r="E17" t="s" s="23">
+      <c r="G18" t="s" s="24">
         <v>89</v>
       </c>
-      <c r="F17" t="s" s="23">
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" t="s" s="24">
         <v>90</v>
       </c>
-      <c r="G17" t="s" s="23">
+      <c r="L18" t="s" s="24">
         <v>91</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" t="s" s="23">
+      <c r="M18" t="s" s="24">
         <v>92</v>
       </c>
-      <c r="L17" t="s" s="23">
+      <c r="N18" t="s" s="24">
         <v>93</v>
       </c>
-      <c r="M17" t="s" s="23">
+      <c r="O18" t="s" s="24">
         <v>94</v>
       </c>
-      <c r="N17" t="s" s="23">
+      <c r="P18" t="s" s="24">
         <v>95</v>
       </c>
-      <c r="O17" t="s" s="23">
+      <c r="Q18" t="s" s="24">
         <v>96</v>
       </c>
-      <c r="P17" t="s" s="23">
+      <c r="R18" t="s" s="24">
         <v>97</v>
       </c>
-      <c r="Q17" t="s" s="23">
+      <c r="S18" t="s" s="24">
         <v>98</v>
       </c>
-      <c r="R17" t="s" s="23">
+      <c r="T18" t="s" s="24">
         <v>99</v>
       </c>
-      <c r="S17" t="s" s="23">
+      <c r="U18" t="s" s="24">
         <v>100</v>
       </c>
-      <c r="T17" t="s" s="23">
+      <c r="V18" t="s" s="24">
         <v>101</v>
       </c>
-      <c r="U17" t="s" s="23">
+      <c r="W18" t="s" s="24">
         <v>102</v>
       </c>
-      <c r="V17" t="s" s="23">
+      <c r="X18" t="s" s="24">
         <v>103</v>
       </c>
-      <c r="W17" t="s" s="23">
+      <c r="Y18" t="s" s="24">
         <v>104</v>
       </c>
-      <c r="X17" t="s" s="23">
+    </row>
+    <row r="19" ht="30.45" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" t="s" s="26">
         <v>105</v>
       </c>
-      <c r="Y17" t="s" s="23">
+      <c r="C19" t="s" s="30">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" ht="30.45" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" t="s" s="25">
+      <c r="D19" t="s" s="30">
         <v>107</v>
       </c>
-      <c r="C18" t="s" s="29">
+      <c r="E19" t="s" s="26">
         <v>108</v>
       </c>
-      <c r="D18" t="s" s="29">
+      <c r="F19" t="s" s="30">
         <v>109</v>
       </c>
-      <c r="E18" t="s" s="25">
+      <c r="G19" t="s" s="30">
+        <v>109</v>
+      </c>
+      <c r="H19" t="s" s="38">
         <v>110</v>
       </c>
-      <c r="F18" t="s" s="29">
+      <c r="I19" t="s" s="38">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s" s="38">
+        <v>110</v>
+      </c>
+      <c r="K19" t="s" s="26">
         <v>111</v>
       </c>
-      <c r="G18" t="s" s="29">
-        <v>111</v>
-      </c>
-      <c r="H18" t="s" s="37">
+      <c r="L19" t="s" s="26">
         <v>112</v>
       </c>
-      <c r="I18" t="s" s="37">
-        <v>112</v>
-      </c>
-      <c r="J18" t="s" s="37">
-        <v>112</v>
-      </c>
-      <c r="K18" t="s" s="25">
+      <c r="M19" t="s" s="26">
         <v>113</v>
       </c>
-      <c r="L18" t="s" s="25">
+      <c r="N19" t="s" s="30">
         <v>114</v>
       </c>
-      <c r="M18" t="s" s="25">
+      <c r="O19" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="P19" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="Q19" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="R19" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="S19" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="T19" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="U19" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="V19" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="W19" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="X19" t="s" s="26">
         <v>115</v>
       </c>
-      <c r="N18" t="s" s="29">
+      <c r="Y19" t="s" s="26">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" ht="16" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+    </row>
+    <row r="21" ht="21.75" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" t="s" s="11">
         <v>116</v>
       </c>
-      <c r="O18" t="s" s="25">
-        <v>116</v>
-      </c>
-      <c r="P18" t="s" s="25">
-        <v>116</v>
-      </c>
-      <c r="Q18" t="s" s="25">
-        <v>116</v>
-      </c>
-      <c r="R18" t="s" s="25">
-        <v>116</v>
-      </c>
-      <c r="S18" t="s" s="25">
-        <v>116</v>
-      </c>
-      <c r="T18" t="s" s="25">
-        <v>116</v>
-      </c>
-      <c r="U18" t="s" s="25">
-        <v>116</v>
-      </c>
-      <c r="V18" t="s" s="25">
-        <v>116</v>
-      </c>
-      <c r="W18" t="s" s="25">
-        <v>116</v>
-      </c>
-      <c r="X18" t="s" s="25">
-        <v>117</v>
-      </c>
-      <c r="Y18" t="s" s="25">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-    </row>
-    <row r="20" ht="21.75" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" t="s" s="11">
-        <v>118</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-    </row>
-    <row r="21" ht="24" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" t="s" s="45">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s" s="45">
-        <v>119</v>
-      </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" t="s" s="45">
-        <v>41</v>
-      </c>
-      <c r="H21" t="s" s="45">
-        <v>120</v>
-      </c>
-      <c r="I21" t="s" s="45">
-        <v>121</v>
-      </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" t="s" s="27">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s" s="27">
-        <v>122</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" t="s" s="27">
-        <v>123</v>
-      </c>
-      <c r="H22" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I22" t="s" s="47">
-        <v>125</v>
-      </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
+      <c r="B22" t="s" s="46">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s" s="46">
+        <v>117</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" t="s" s="46">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="46">
+        <v>118</v>
+      </c>
+      <c r="I22" t="s" s="46">
+        <v>119</v>
+      </c>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="10"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" t="s" s="27">
+      <c r="B23" t="s" s="28">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s" s="28">
+        <v>120</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" t="s" s="28">
+        <v>121</v>
+      </c>
+      <c r="H23" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I23" t="s" s="48">
+        <v>123</v>
+      </c>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+    </row>
+    <row r="24" ht="24" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" t="s" s="28">
+        <v>124</v>
+      </c>
+      <c r="H24" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I24" t="s" s="48">
+        <v>125</v>
+      </c>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+    </row>
+    <row r="25" ht="24" customHeight="1">
+      <c r="A25" s="50"/>
+      <c r="B25" t="s" s="28">
+        <v>8</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" t="s" s="28">
         <v>126</v>
       </c>
-      <c r="H23" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I23" t="s" s="47">
+      <c r="H25" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I25" t="s" s="48">
         <v>127</v>
       </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-    </row>
-    <row r="24" ht="24" customHeight="1">
-      <c r="A24" s="49"/>
-      <c r="B24" t="s" s="27">
-        <v>8</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" t="s" s="27">
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+    </row>
+    <row r="26" ht="24" customHeight="1">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" t="s" s="28">
         <v>128</v>
       </c>
-      <c r="H24" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I24" t="s" s="47">
+      <c r="H26" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I26" t="s" s="48">
         <v>129</v>
       </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-    </row>
-    <row r="25" ht="24" customHeight="1">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" t="s" s="27">
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+    </row>
+    <row r="27" ht="24" customHeight="1">
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" t="s" s="28">
         <v>130</v>
       </c>
-      <c r="H25" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I25" t="s" s="47">
+      <c r="H27" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I27" t="s" s="48">
         <v>131</v>
       </c>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-    </row>
-    <row r="26" ht="24" customHeight="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" t="s" s="27">
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+    </row>
+    <row r="28" ht="24" customHeight="1">
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" t="s" s="28">
         <v>132</v>
       </c>
-      <c r="H26" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I26" t="s" s="47">
+      <c r="H28" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I28" t="s" s="48">
         <v>133</v>
       </c>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-    </row>
-    <row r="27" ht="24" customHeight="1">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" t="s" s="27">
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+    </row>
+    <row r="29" ht="24" customHeight="1">
+      <c r="A29" s="50"/>
+      <c r="B29" t="s" s="28">
+        <v>9</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" t="s" s="28">
         <v>134</v>
       </c>
-      <c r="H27" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I27" t="s" s="47">
+      <c r="H29" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I29" t="s" s="52">
         <v>135</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-    </row>
-    <row r="28" ht="24" customHeight="1">
-      <c r="A28" s="49"/>
-      <c r="B28" t="s" s="27">
-        <v>9</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" t="s" s="27">
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="54"/>
+    </row>
+    <row r="30" ht="24" customHeight="1">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" t="s" s="28">
         <v>136</v>
       </c>
-      <c r="H28" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I28" t="s" s="51">
+      <c r="H30" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I30" t="s" s="52">
         <v>137</v>
       </c>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="53"/>
-    </row>
-    <row r="29" ht="24" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" t="s" s="27">
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="54"/>
+    </row>
+    <row r="31" ht="24" customHeight="1">
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" t="s" s="28">
         <v>138</v>
       </c>
-      <c r="H29" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I29" t="s" s="51">
+      <c r="H31" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I31" t="s" s="52">
         <v>139</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="53"/>
-    </row>
-    <row r="30" ht="24" customHeight="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" t="s" s="27">
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="54"/>
+    </row>
+    <row r="32" ht="24" customHeight="1">
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" t="s" s="28">
         <v>140</v>
       </c>
-      <c r="H30" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I30" t="s" s="51">
+      <c r="H32" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I32" t="s" s="52">
         <v>141</v>
       </c>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="53"/>
-    </row>
-    <row r="31" ht="24" customHeight="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" t="s" s="27">
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="54"/>
+    </row>
+    <row r="33" ht="24" customHeight="1">
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" t="s" s="28">
         <v>142</v>
       </c>
-      <c r="H31" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I31" t="s" s="51">
+      <c r="H33" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I33" t="s" s="48">
         <v>143</v>
       </c>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="53"/>
-    </row>
-    <row r="32" ht="24" customHeight="1">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" t="s" s="27">
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+    </row>
+    <row r="34" ht="24" customHeight="1">
+      <c r="A34" s="50"/>
+      <c r="B34" t="s" s="28">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s" s="28">
         <v>144</v>
       </c>
-      <c r="H32" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I32" t="s" s="47">
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" t="s" s="28">
         <v>145</v>
       </c>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-    </row>
-    <row r="33" ht="24" customHeight="1">
-      <c r="A33" s="49"/>
-      <c r="B33" t="s" s="27">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s" s="27">
+      <c r="H34" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I34" t="s" s="48">
         <v>146</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" t="s" s="27">
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+    </row>
+    <row r="35" ht="24" customHeight="1">
+      <c r="A35" s="50"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" t="s" s="28">
         <v>147</v>
       </c>
-      <c r="H33" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I33" t="s" s="47">
+      <c r="H35" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I35" t="s" s="48">
         <v>148</v>
       </c>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-    </row>
-    <row r="34" ht="24" customHeight="1">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" t="s" s="27">
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+    </row>
+    <row r="36" ht="24" customHeight="1">
+      <c r="A36" s="50"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" t="s" s="28">
         <v>149</v>
       </c>
-      <c r="H34" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I34" t="s" s="47">
+      <c r="H36" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I36" t="s" s="48">
         <v>150</v>
       </c>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-    </row>
-    <row r="35" ht="24" customHeight="1">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" t="s" s="27">
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+    </row>
+    <row r="37" ht="24" customHeight="1">
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" t="s" s="28">
+        <v>63</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" t="s" s="28">
         <v>151</v>
       </c>
-      <c r="H35" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I35" t="s" s="47">
+      <c r="H37" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I37" t="s" s="48">
         <v>152</v>
       </c>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-    </row>
-    <row r="36" ht="24" customHeight="1">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
-      <c r="C36" t="s" s="27">
-        <v>67</v>
-      </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" t="s" s="27">
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+    </row>
+    <row r="38" ht="24" customHeight="1">
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" t="s" s="28">
         <v>153</v>
       </c>
-      <c r="H36" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I36" t="s" s="47">
+      <c r="H38" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I38" t="s" s="48">
         <v>154</v>
       </c>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-    </row>
-    <row r="37" ht="24" customHeight="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" t="s" s="27">
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+    </row>
+    <row r="39" ht="24" customHeight="1">
+      <c r="A39" s="50"/>
+      <c r="B39" t="s" s="26">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s" s="26">
+        <v>64</v>
+      </c>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" t="s" s="28">
         <v>155</v>
       </c>
-      <c r="H37" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I37" t="s" s="47">
+      <c r="H39" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I39" t="s" s="48">
         <v>156</v>
       </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-    </row>
-    <row r="38" ht="24" customHeight="1">
-      <c r="A38" s="49"/>
-      <c r="B38" t="s" s="25">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s" s="25">
-        <v>68</v>
-      </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" t="s" s="27">
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="49"/>
+    </row>
+    <row r="40" ht="24" customHeight="1">
+      <c r="A40" s="50"/>
+      <c r="B40" s="55"/>
+      <c r="C40" t="s" s="26">
         <v>157</v>
       </c>
-      <c r="H38" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I38" t="s" s="47">
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" t="s" s="28">
         <v>158</v>
       </c>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-    </row>
-    <row r="39" ht="24" customHeight="1">
-      <c r="A39" s="49"/>
-      <c r="B39" s="54"/>
-      <c r="C39" t="s" s="25">
+      <c r="H40" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I40" t="s" s="48">
+        <v>157</v>
+      </c>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="49"/>
+    </row>
+    <row r="41" ht="24" customHeight="1">
+      <c r="A41" s="50"/>
+      <c r="B41" s="55"/>
+      <c r="C41" t="s" s="26">
         <v>159</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" t="s" s="27">
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" t="s" s="28">
         <v>160</v>
       </c>
-      <c r="H39" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I39" t="s" s="47">
-        <v>159</v>
-      </c>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-      <c r="Y39" s="48"/>
-    </row>
-    <row r="40" ht="24" customHeight="1">
-      <c r="A40" s="49"/>
-      <c r="B40" s="54"/>
-      <c r="C40" t="s" s="25">
+      <c r="H41" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I41" t="s" s="48">
         <v>161</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" t="s" s="27">
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="49"/>
+      <c r="Y41" s="49"/>
+    </row>
+    <row r="42" ht="24" customHeight="1">
+      <c r="A42" s="50"/>
+      <c r="B42" s="55"/>
+      <c r="C42" t="s" s="26">
         <v>162</v>
       </c>
-      <c r="H40" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I40" t="s" s="47">
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" t="s" s="28">
         <v>163</v>
       </c>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="48"/>
-    </row>
-    <row r="41" ht="24" customHeight="1">
-      <c r="A41" s="49"/>
-      <c r="B41" s="54"/>
-      <c r="C41" t="s" s="25">
+      <c r="H42" t="s" s="28">
+        <v>122</v>
+      </c>
+      <c r="I42" t="s" s="48">
+        <v>162</v>
+      </c>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="49"/>
+      <c r="Y42" s="49"/>
+    </row>
+    <row r="43" ht="24" customHeight="1">
+      <c r="A43" s="50"/>
+      <c r="B43" t="s" s="26">
         <v>164</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" t="s" s="27">
+      <c r="C43" t="s" s="26">
         <v>165</v>
       </c>
-      <c r="H41" t="s" s="27">
-        <v>124</v>
-      </c>
-      <c r="I41" t="s" s="47">
-        <v>164</v>
-      </c>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="48"/>
-    </row>
-    <row r="42" ht="24" customHeight="1">
-      <c r="A42" s="49"/>
-      <c r="B42" t="s" s="25">
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" t="s" s="28">
         <v>166</v>
       </c>
-      <c r="C42" t="s" s="25">
+      <c r="H43" t="s" s="28">
         <v>167</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" t="s" s="27">
+      <c r="I43" t="s" s="48">
         <v>168</v>
       </c>
-      <c r="H42" t="s" s="27">
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+    </row>
+    <row r="44" ht="24" customHeight="1">
+      <c r="A44" s="50"/>
+      <c r="B44" s="36"/>
+      <c r="C44" t="s" s="26">
         <v>169</v>
       </c>
-      <c r="I42" t="s" s="47">
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" t="s" s="28">
         <v>170</v>
       </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-    </row>
-    <row r="43" ht="24" customHeight="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="35"/>
-      <c r="C43" t="s" s="25">
+      <c r="H44" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I44" t="s" s="48">
+        <v>169</v>
+      </c>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+    </row>
+    <row r="45" ht="24" customHeight="1">
+      <c r="A45" s="50"/>
+      <c r="B45" s="36"/>
+      <c r="C45" t="s" s="26">
         <v>171</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" t="s" s="27">
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" t="s" s="28">
         <v>172</v>
       </c>
-      <c r="H43" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I43" t="s" s="47">
+      <c r="H45" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I45" t="s" s="48">
         <v>171</v>
       </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="35"/>
-    </row>
-    <row r="44" ht="24" customHeight="1">
-      <c r="A44" s="49"/>
-      <c r="B44" s="35"/>
-      <c r="C44" t="s" s="25">
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
+    </row>
+    <row r="46" ht="24" customHeight="1">
+      <c r="A46" s="50"/>
+      <c r="B46" s="36"/>
+      <c r="C46" t="s" s="26">
         <v>173</v>
       </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" t="s" s="27">
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" t="s" s="28">
         <v>174</v>
       </c>
-      <c r="H44" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I44" t="s" s="47">
-        <v>173</v>
-      </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="35"/>
-    </row>
-    <row r="45" ht="24" customHeight="1">
-      <c r="A45" s="49"/>
-      <c r="B45" s="35"/>
-      <c r="C45" t="s" s="25">
+      <c r="H46" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I46" t="s" s="48">
         <v>175</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" t="s" s="27">
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+    </row>
+    <row r="47" ht="24" customHeight="1">
+      <c r="A47" s="50"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" t="s" s="28">
         <v>176</v>
       </c>
-      <c r="H45" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I45" t="s" s="47">
+      <c r="H47" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I47" t="s" s="48">
         <v>177</v>
       </c>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
-    </row>
-    <row r="46" ht="24" customHeight="1">
-      <c r="A46" s="49"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" t="s" s="27">
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="36"/>
+    </row>
+    <row r="48" ht="24" customHeight="1">
+      <c r="A48" s="50"/>
+      <c r="B48" t="s" s="26">
         <v>178</v>
       </c>
-      <c r="H46" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I46" t="s" s="47">
+      <c r="C48" t="s" s="26">
         <v>179</v>
       </c>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="35"/>
-      <c r="Y46" s="35"/>
-    </row>
-    <row r="47" ht="24" customHeight="1">
-      <c r="A47" s="49"/>
-      <c r="B47" t="s" s="25">
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" t="s" s="28">
         <v>180</v>
       </c>
-      <c r="C47" t="s" s="25">
+      <c r="H48" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I48" t="s" s="48">
         <v>181</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" t="s" s="27">
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+    </row>
+    <row r="49" ht="24" customHeight="1">
+      <c r="A49" s="50"/>
+      <c r="B49" s="36"/>
+      <c r="C49" t="s" s="26">
         <v>182</v>
       </c>
-      <c r="H47" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I47" t="s" s="47">
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" t="s" s="28">
         <v>183</v>
       </c>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
-    </row>
-    <row r="48" ht="24" customHeight="1">
-      <c r="A48" s="49"/>
-      <c r="B48" s="35"/>
-      <c r="C48" t="s" s="25">
+      <c r="H49" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I49" t="s" s="48">
         <v>184</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" t="s" s="27">
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36"/>
+    </row>
+    <row r="50" ht="24" customHeight="1">
+      <c r="A50" s="50"/>
+      <c r="B50" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s" s="26">
+        <v>113</v>
+      </c>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" t="s" s="28">
         <v>185</v>
       </c>
-      <c r="H48" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I48" t="s" s="47">
+      <c r="H50" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I50" t="s" s="48">
         <v>186</v>
       </c>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-    </row>
-    <row r="49" ht="24" customHeight="1">
-      <c r="A49" s="49"/>
-      <c r="B49" t="s" s="25">
-        <v>76</v>
-      </c>
-      <c r="C49" t="s" s="25">
-        <v>115</v>
-      </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" t="s" s="27">
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="36"/>
+    </row>
+    <row r="51" ht="24" customHeight="1">
+      <c r="A51" s="50"/>
+      <c r="B51" s="36"/>
+      <c r="C51" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" t="s" s="28">
         <v>187</v>
       </c>
-      <c r="H49" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I49" t="s" s="47">
+      <c r="H51" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I51" t="s" s="48">
         <v>188</v>
       </c>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-    </row>
-    <row r="50" ht="24" customHeight="1">
-      <c r="A50" s="49"/>
-      <c r="B50" s="35"/>
-      <c r="C50" t="s" s="25">
-        <v>116</v>
-      </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" t="s" s="27">
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="36"/>
+    </row>
+    <row r="52" ht="24" customHeight="1">
+      <c r="A52" s="50"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" t="s" s="28">
         <v>189</v>
       </c>
-      <c r="H50" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I50" t="s" s="47">
+      <c r="H52" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I52" t="s" s="48">
         <v>190</v>
       </c>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
-    </row>
-    <row r="51" ht="24" customHeight="1">
-      <c r="A51" s="49"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" t="s" s="27">
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="36"/>
+    </row>
+    <row r="53" ht="24" customHeight="1">
+      <c r="A53" s="50"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" t="s" s="28">
         <v>191</v>
       </c>
-      <c r="H51" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I51" t="s" s="47">
+      <c r="H53" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I53" t="s" s="48">
         <v>192</v>
       </c>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-    </row>
-    <row r="52" ht="24" customHeight="1">
-      <c r="A52" s="49"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" t="s" s="27">
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="36"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="36"/>
+    </row>
+    <row r="54" ht="24" customHeight="1">
+      <c r="A54" s="50"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" t="s" s="28">
         <v>193</v>
       </c>
-      <c r="H52" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I52" t="s" s="47">
+      <c r="H54" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I54" t="s" s="48">
         <v>194</v>
       </c>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
-    </row>
-    <row r="53" ht="24" customHeight="1">
-      <c r="A53" s="49"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" t="s" s="27">
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="36"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="36"/>
+    </row>
+    <row r="55" ht="24" customHeight="1">
+      <c r="A55" s="50"/>
+      <c r="B55" t="s" s="26">
+        <v>73</v>
+      </c>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" t="s" s="28">
         <v>195</v>
       </c>
-      <c r="H53" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I53" t="s" s="47">
+      <c r="H55" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I55" t="s" s="48">
         <v>196</v>
       </c>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-    </row>
-    <row r="54" ht="24" customHeight="1">
-      <c r="A54" s="49"/>
-      <c r="B54" t="s" s="25">
-        <v>77</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" t="s" s="27">
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="36"/>
+    </row>
+    <row r="56" ht="24" customHeight="1">
+      <c r="A56" s="50"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" t="s" s="28">
         <v>197</v>
       </c>
-      <c r="H54" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I54" t="s" s="47">
+      <c r="H56" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I56" t="s" s="48">
         <v>198</v>
       </c>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-    </row>
-    <row r="55" ht="24" customHeight="1">
-      <c r="A55" s="49"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" t="s" s="27">
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="36"/>
+    </row>
+    <row r="57" ht="24" customHeight="1">
+      <c r="A57" s="50"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" t="s" s="28">
         <v>199</v>
       </c>
-      <c r="H55" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I55" t="s" s="47">
+      <c r="H57" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I57" t="s" s="48">
         <v>200</v>
       </c>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-    </row>
-    <row r="56" ht="24" customHeight="1">
-      <c r="A56" s="49"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" t="s" s="27">
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+    </row>
+    <row r="58" ht="24" customHeight="1">
+      <c r="A58" s="50"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" t="s" s="28">
         <v>201</v>
       </c>
-      <c r="H56" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I56" t="s" s="47">
+      <c r="H58" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I58" t="s" s="48">
         <v>202</v>
       </c>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="35"/>
-    </row>
-    <row r="57" ht="24" customHeight="1">
-      <c r="A57" s="49"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" t="s" s="27">
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="36"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="36"/>
+    </row>
+    <row r="59" ht="24" customHeight="1">
+      <c r="A59" s="50"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" t="s" s="28">
         <v>203</v>
       </c>
-      <c r="H57" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I57" t="s" s="47">
+      <c r="H59" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I59" t="s" s="48">
         <v>204</v>
       </c>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="35"/>
-    </row>
-    <row r="58" ht="24" customHeight="1">
-      <c r="A58" s="49"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" t="s" s="27">
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="36"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="36"/>
+    </row>
+    <row r="60" ht="24" customHeight="1">
+      <c r="A60" s="50"/>
+      <c r="B60" t="s" s="26">
+        <v>74</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" t="s" s="28">
         <v>205</v>
       </c>
-      <c r="H58" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I58" t="s" s="47">
+      <c r="H60" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I60" t="s" s="48">
         <v>206</v>
       </c>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35"/>
-    </row>
-    <row r="59" ht="24" customHeight="1">
-      <c r="A59" s="49"/>
-      <c r="B59" t="s" s="25">
-        <v>78</v>
-      </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" t="s" s="27">
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="36"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
+    </row>
+    <row r="61" ht="24" customHeight="1">
+      <c r="A61" s="50"/>
+      <c r="B61" s="36"/>
+      <c r="C61" t="s" s="26">
         <v>207</v>
       </c>
-      <c r="H59" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I59" t="s" s="47">
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" t="s" s="28">
         <v>208</v>
       </c>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-    </row>
-    <row r="60" ht="24" customHeight="1">
-      <c r="A60" s="49"/>
-      <c r="B60" s="35"/>
-      <c r="C60" t="s" s="25">
+      <c r="H61" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I61" t="s" s="48">
         <v>209</v>
       </c>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" t="s" s="27">
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
+    </row>
+    <row r="62" ht="24" customHeight="1">
+      <c r="A62" s="50"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" t="s" s="28">
         <v>210</v>
       </c>
-      <c r="H60" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I60" t="s" s="47">
+      <c r="H62" t="s" s="28">
+        <v>167</v>
+      </c>
+      <c r="I62" t="s" s="48">
         <v>211</v>
       </c>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="35"/>
-    </row>
-    <row r="61" ht="24" customHeight="1">
-      <c r="A61" s="49"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" t="s" s="27">
-        <v>212</v>
-      </c>
-      <c r="H61" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="I61" t="s" s="47">
-        <v>213</v>
-      </c>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
-      <c r="Y61" s="35"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="86">
     <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="I33:Y33"/>
     <mergeCell ref="I34:Y34"/>
     <mergeCell ref="I35:Y35"/>
+    <mergeCell ref="I36:Y36"/>
     <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="I21:Y21"/>
     <mergeCell ref="I22:Y22"/>
     <mergeCell ref="I23:Y23"/>
     <mergeCell ref="I24:Y24"/>
     <mergeCell ref="I25:Y25"/>
-    <mergeCell ref="I36:Y36"/>
+    <mergeCell ref="I26:Y26"/>
     <mergeCell ref="I37:Y37"/>
     <mergeCell ref="I38:Y38"/>
-    <mergeCell ref="B38:B41"/>
     <mergeCell ref="I39:Y39"/>
+    <mergeCell ref="B39:B42"/>
     <mergeCell ref="I40:Y40"/>
     <mergeCell ref="I41:Y41"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="I31:Y31"/>
+    <mergeCell ref="I42:Y42"/>
+    <mergeCell ref="B34:B38"/>
     <mergeCell ref="I32:Y32"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="I26:Y26"/>
+    <mergeCell ref="I33:Y33"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="I27:Y27"/>
     <mergeCell ref="I28:Y28"/>
     <mergeCell ref="I29:Y29"/>
     <mergeCell ref="I30:Y30"/>
-    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="I31:Y31"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="P7:T7"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B3:Y3"/>
     <mergeCell ref="F6:Y6"/>
     <mergeCell ref="C6:E6"/>
@@ -4651,25 +4675,24 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="K7:O7"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="G13:Y13"/>
-    <mergeCell ref="I42:Y42"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="G14:Y14"/>
     <mergeCell ref="I43:Y43"/>
     <mergeCell ref="I44:Y44"/>
-    <mergeCell ref="I46:Y46"/>
+    <mergeCell ref="I45:Y45"/>
     <mergeCell ref="I47:Y47"/>
     <mergeCell ref="I48:Y48"/>
     <mergeCell ref="I49:Y49"/>
     <mergeCell ref="I50:Y50"/>
     <mergeCell ref="I51:Y51"/>
     <mergeCell ref="I52:Y52"/>
-    <mergeCell ref="I45:Y45"/>
     <mergeCell ref="I53:Y53"/>
+    <mergeCell ref="I46:Y46"/>
     <mergeCell ref="I54:Y54"/>
     <mergeCell ref="I55:Y55"/>
     <mergeCell ref="I56:Y56"/>
@@ -4678,27 +4701,28 @@
     <mergeCell ref="I59:Y59"/>
     <mergeCell ref="I60:Y60"/>
     <mergeCell ref="I61:Y61"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C22:F32"/>
-    <mergeCell ref="C33:F35"/>
-    <mergeCell ref="C60:F61"/>
-    <mergeCell ref="C50:F59"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="I62:Y62"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C23:F33"/>
+    <mergeCell ref="C34:F36"/>
+    <mergeCell ref="C61:F62"/>
+    <mergeCell ref="C51:F60"/>
+    <mergeCell ref="C46:F47"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C36:F37"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C37:F38"/>
+    <mergeCell ref="C40:F40"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C41:F41"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C42:F42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="54" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
